--- a/Sprint2_Backlog_Template.xlsx
+++ b/Sprint2_Backlog_Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>User story</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Mohamed Galal</t>
+  </si>
+  <si>
+    <t>For Merging into Master Branch reviewers</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -663,7 +666,7 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -722,6 +725,9 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -830,6 +836,17 @@
       </c>
       <c r="F17" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
